--- a/biology/Médecine/Furfural_(maladie_professionnelle)/Furfural_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Furfural_(maladie_professionnelle)/Furfural_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une intoxication par le furfural est reconnue, en France, comme maladie professionnelle sous certaines conditions.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical.
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -545,16 +563,98 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Données professionnelles
-Le furfural est utilisé comme solvant en raffinage pétrochimique pour séparer les diènes (qui sont utilisés pour fabriquer le caoutchouc synthétique) des autres hydrocarbures.
-Le furfural, avec son odeur épicé et amandé, est utilisé dans la fabrication d'arômes chocolat, caramel, beurre, noix cannelle, café, pain ou bien de liqueur. Son numéro fema/GRAS est le 2489[2].
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le furfural est utilisé comme solvant en raffinage pétrochimique pour séparer les diènes (qui sont utilisés pour fabriquer le caoutchouc synthétique) des autres hydrocarbures.
+Le furfural, avec son odeur épicé et amandé, est utilisé dans la fabrication d'arômes chocolat, caramel, beurre, noix cannelle, café, pain ou bien de liqueur. Son numéro fema/GRAS est le 2489.
 Le furfural, ainsi que son dérivé l’alcool furfurylique, peut être utilisé seul ou en association avec le phénol, l’acétone, ou l’urée pour fabriquer des résines résistantes. Ces résines sont utilisées dans la fabrication des fibres de verre, de certains pièces d’avions, et de freins dans l’industrie automobile.
 Le furfural est également utilisé comme intermédiaire de synthèse pour la production de solvants comme les furanes et le tétrahydrofurane. L’Hydroxyméthylfurfural a été identifié dans une grande variété d'aliments transformés par la chaleur.
-Données médicales
-Effets aigus
-Lorsqu'il est ingéré ou inhalé, le furfural peut provoquer des symptômes similaires à ceux rencontrés dans l’intoxication par différents solvants, notamment une certaine euphorie, des maux de tête, des étourdissements, des nausées et, dans les cas extrêmes, la perte de conscience et la mort par insuffisance respiratoire. Le contact avec le furfural irrite la peau et les voies respiratoires et peut provoquer un œdème pulmonaire.
-Effets chroniques
-L'exposition cutanée chronique peut entraîner une allergie cutanée à la substance, ainsi qu’une photosensibilisation. Dans les études de toxicité expérimentale, le furfural s’est révélé mutagène et a provoqué des tumeurs ainsi que des lésions du foie et des reins chez l’animal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Furfural_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Furfural_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Furfural</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Effets aigus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'il est ingéré ou inhalé, le furfural peut provoquer des symptômes similaires à ceux rencontrés dans l’intoxication par différents solvants, notamment une certaine euphorie, des maux de tête, des étourdissements, des nausées et, dans les cas extrêmes, la perte de conscience et la mort par insuffisance respiratoire. Le contact avec le furfural irrite la peau et les voies respiratoires et peut provoquer un œdème pulmonaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Furfural_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Furfural_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Furfural</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Effets chroniques</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exposition cutanée chronique peut entraîner une allergie cutanée à la substance, ainsi qu’une photosensibilisation. Dans les études de toxicité expérimentale, le furfural s’est révélé mutagène et a provoqué des tumeurs ainsi que des lésions du foie et des reins chez l’animal.
 </t>
         </is>
       </c>
